--- a/cbrunner/Parameters/Table_BCFCS_Level4CategoriesStatus.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_Level4CategoriesStatus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1AD85B-A628-4A71-9BB9-A2A4EAD9E743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6323D1F6-07FB-46ED-8294-51E1ECFD489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="50">
   <si>
     <t>?</t>
   </si>
@@ -44,139 +44,148 @@
     <t>N</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Tree improvement - breeding programs</t>
+  </si>
+  <si>
+    <t>Tree improvement - assisted migration</t>
+  </si>
+  <si>
+    <t>Supply-driven variability</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Controllable</t>
+  </si>
+  <si>
+    <t>Additionality</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Afforestation</t>
+  </si>
+  <si>
+    <t>Deforestation</t>
+  </si>
+  <si>
+    <t>Clearcut harvesting</t>
+  </si>
+  <si>
+    <t>Climate-optimized harvest scheduling</t>
+  </si>
+  <si>
+    <t>Nutrient management</t>
+  </si>
+  <si>
+    <t>Business-as-usual forestry</t>
+  </si>
+  <si>
+    <t>Forest carbon offset projects</t>
+  </si>
+  <si>
+    <t>Wildfire suppression</t>
+  </si>
+  <si>
+    <t>Disturbance risk management</t>
+  </si>
+  <si>
+    <t>Broadcast burning</t>
+  </si>
+  <si>
+    <t>Landscape fuel breaks</t>
+  </si>
+  <si>
+    <t>Shaded fuel breaks</t>
+  </si>
+  <si>
+    <t>Pulp products</t>
+  </si>
+  <si>
+    <t>Solid wood products</t>
+  </si>
+  <si>
+    <t>Advanced biomaterials</t>
+  </si>
+  <si>
+    <t>Improved use of wood products</t>
+  </si>
+  <si>
+    <t>Forest conservation</t>
+  </si>
+  <si>
+    <t>Old growth management areas</t>
+  </si>
+  <si>
+    <t>Harvest planning and practices</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Salvage harvesting</t>
+  </si>
+  <si>
+    <t>Harvest retention rate</t>
+  </si>
+  <si>
+    <t>Stand establishment</t>
+  </si>
+  <si>
+    <t>Avoided slashpile burning</t>
+  </si>
+  <si>
+    <t>Straight-to-planting</t>
+  </si>
+  <si>
+    <t>Knockdown and planting</t>
+  </si>
+  <si>
+    <t>Aerial applications</t>
+  </si>
+  <si>
+    <t>Hand applications</t>
+  </si>
+  <si>
+    <t>Aerial BTK application</t>
+  </si>
+  <si>
+    <t>Road rehabilitation</t>
+  </si>
+  <si>
+    <t>Land use change</t>
+  </si>
+  <si>
+    <t>Bioerngy products</t>
+  </si>
+  <si>
+    <t>Tier 3 Category</t>
+  </si>
+  <si>
+    <t>NSR Backlog</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Tree improvement - breeding programs</t>
-  </si>
-  <si>
-    <t>Tree improvement - assisted migration</t>
-  </si>
-  <si>
-    <t>Supply-driven variability</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Controllable</t>
-  </si>
-  <si>
-    <t>Complimentary</t>
-  </si>
-  <si>
-    <t>Additionality</t>
-  </si>
-  <si>
-    <t>Parks</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
-    <t>Level 3 Category</t>
-  </si>
-  <si>
-    <t>Level 4 Category</t>
-  </si>
-  <si>
-    <t>Land cover change (anthropogenic)</t>
-  </si>
-  <si>
-    <t>Afforestation</t>
-  </si>
-  <si>
-    <t>Deforestation</t>
-  </si>
-  <si>
-    <t>Clearcut harvesting</t>
-  </si>
-  <si>
-    <t>Retention</t>
-  </si>
-  <si>
-    <t>Climate-optimized harvest scheduling</t>
-  </si>
-  <si>
-    <t>Prioritization of dead and dedgraded stands</t>
-  </si>
-  <si>
-    <t>Avoided open burning by utilizing waste</t>
-  </si>
-  <si>
-    <t>Straight planting</t>
-  </si>
-  <si>
-    <t>Nutrient management</t>
-  </si>
-  <si>
-    <t>Defoliator mitigation</t>
-  </si>
-  <si>
-    <t>Business-as-usual forestry</t>
-  </si>
-  <si>
-    <t>Forest carbon offset projects</t>
-  </si>
-  <si>
-    <t>Legal old growth management areas</t>
-  </si>
-  <si>
-    <t>Resource extraction area restrictions</t>
-  </si>
-  <si>
-    <t>Wildfire suppression</t>
-  </si>
-  <si>
-    <t>Improved harvest planning and practices</t>
-  </si>
-  <si>
-    <t>Non-obligation silviculture and ecosystem restoration</t>
-  </si>
-  <si>
-    <t>Disturbance risk management</t>
-  </si>
-  <si>
-    <t>Broadcast burning</t>
-  </si>
-  <si>
-    <t>Landscape fuel breaks</t>
-  </si>
-  <si>
-    <t>Shaded fuel breaks</t>
-  </si>
-  <si>
-    <t>Bioerngy product footprint</t>
-  </si>
-  <si>
-    <t>Pulp products</t>
-  </si>
-  <si>
-    <t>Solid wood products</t>
-  </si>
-  <si>
-    <t>Advanced biomaterials</t>
-  </si>
-  <si>
-    <t>Improved use of wood products</t>
-  </si>
-  <si>
-    <t>Improved stand establishment</t>
-  </si>
-  <si>
-    <t>Knockdown and restoration</t>
+    <t>Tier 4 Category</t>
   </si>
 </sst>
 </file>
@@ -241,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -387,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,106 +546,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="8" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -645,15 +650,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -668,9 +670,6 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -693,347 +692,305 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1042,156 +999,195 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>3</v>
       </c>
     </row>
